--- a/CASUAL/LA CHO/DEL MUNDO, JONAS.xlsx
+++ b/CASUAL/LA CHO/DEL MUNDO, JONAS.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\CASUAL\LA CHO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\CASUAL\LA CHO\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E5EE5EF-C65D-4E6B-ABC0-B2F03FE93F49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="2"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -27,7 +28,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'2017 LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="92">
   <si>
     <t>PERIOD</t>
   </si>
@@ -307,12 +308,18 @@
   </si>
   <si>
     <t>10/10,11/2023</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>1/25,26/2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -691,17 +698,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -711,6 +715,9 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1241,7 +1248,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1284,7 +1291,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1348,7 +1355,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1408,7 +1415,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1474,7 +1481,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1537,7 +1544,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1635,7 +1642,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1694,7 +1701,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1759,7 +1766,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1802,7 +1809,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1877,7 +1884,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2063,7 +2070,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2129,7 +2136,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2187,7 +2194,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2253,7 +2260,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2309,7 +2316,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2384,7 +2391,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2427,7 +2434,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2493,7 +2500,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2549,7 +2556,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2628,7 +2635,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2645,25 +2652,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K142" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table13" displayName="Table13" ref="A8:K142" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="23"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="22"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="21">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="21">
       <calculatedColumnFormula>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="20"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="19">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="20"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="19">
       <calculatedColumnFormula>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="17">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="17">
       <calculatedColumnFormula>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="15"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2675,25 +2682,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K86" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A8:K86" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3000,7 +3007,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3010,7 +3017,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3018,34 +3025,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K142"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="4050" topLeftCell="A80" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="4056" topLeftCell="A89" activePane="bottomLeft"/>
       <selection activeCell="I10" sqref="I10"/>
-      <selection pane="bottomLeft" activeCell="K93" sqref="K93"/>
+      <selection pane="bottomLeft" activeCell="B98" sqref="B98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3057,16 +3064,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3075,16 +3082,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55"/>
-      <c r="G3" s="51"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3095,18 +3102,18 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="51"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3114,7 +3121,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3127,24 +3134,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3179,7 +3186,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3188,7 +3195,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>44.64200000000001</v>
+        <v>49.64200000000001</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3198,12 +3205,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>64.25</v>
+        <v>67.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>45</v>
       </c>
@@ -3225,7 +3232,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>43131</v>
       </c>
@@ -3245,7 +3252,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>43159</v>
       </c>
@@ -3265,7 +3272,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>43190</v>
       </c>
@@ -3285,7 +3292,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>43220</v>
       </c>
@@ -3311,7 +3318,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>43251</v>
       </c>
@@ -3337,7 +3344,7 @@
         <v>43285</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40">
         <v>43281</v>
       </c>
@@ -3357,7 +3364,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
         <v>43312</v>
       </c>
@@ -3377,7 +3384,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>43343</v>
       </c>
@@ -3397,7 +3404,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <v>43373</v>
       </c>
@@ -3417,7 +3424,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <v>43404</v>
       </c>
@@ -3443,7 +3450,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <v>43434</v>
       </c>
@@ -3463,7 +3470,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <v>43465</v>
       </c>
@@ -3489,7 +3496,7 @@
         <v>43451</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="48" t="s">
         <v>46</v>
       </c>
@@ -3507,7 +3514,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <v>43496</v>
       </c>
@@ -3533,7 +3540,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <v>43524</v>
       </c>
@@ -3553,7 +3560,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <v>43555</v>
       </c>
@@ -3573,7 +3580,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <v>43585</v>
       </c>
@@ -3593,7 +3600,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
         <v>43616</v>
       </c>
@@ -3619,7 +3626,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <v>43646</v>
       </c>
@@ -3639,7 +3646,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40">
         <v>43677</v>
       </c>
@@ -3665,7 +3672,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40"/>
       <c r="B31" s="20" t="s">
         <v>55</v>
@@ -3687,7 +3694,7 @@
         <v>43307</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
         <v>43708</v>
       </c>
@@ -3707,7 +3714,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
         <v>43738</v>
       </c>
@@ -3727,7 +3734,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="49"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
         <v>43769</v>
       </c>
@@ -3753,7 +3760,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
         <v>43799</v>
       </c>
@@ -3773,7 +3780,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40">
         <v>43830</v>
       </c>
@@ -3793,7 +3800,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="48" t="s">
         <v>47</v>
       </c>
@@ -3811,7 +3818,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <v>43861</v>
       </c>
@@ -3831,7 +3838,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40">
         <v>43890</v>
       </c>
@@ -3851,7 +3858,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
         <v>43921</v>
       </c>
@@ -3871,7 +3878,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40">
         <v>43951</v>
       </c>
@@ -3891,7 +3898,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
         <v>43982</v>
       </c>
@@ -3911,7 +3918,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
         <v>44012</v>
       </c>
@@ -3931,7 +3938,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40">
         <v>44043</v>
       </c>
@@ -3951,7 +3958,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
         <v>44074</v>
       </c>
@@ -3971,7 +3978,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40">
         <v>44104</v>
       </c>
@@ -3991,7 +3998,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
         <v>44135</v>
       </c>
@@ -4011,7 +4018,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40">
         <v>44165</v>
       </c>
@@ -4031,7 +4038,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40">
         <v>44196</v>
       </c>
@@ -4055,7 +4062,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="48" t="s">
         <v>48</v>
       </c>
@@ -4073,7 +4080,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40">
         <v>44227</v>
       </c>
@@ -4093,7 +4100,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40">
         <v>44255</v>
       </c>
@@ -4119,7 +4126,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40">
         <v>44286</v>
       </c>
@@ -4139,7 +4146,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
         <v>44316</v>
       </c>
@@ -4159,7 +4166,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40">
         <v>44347</v>
       </c>
@@ -4179,7 +4186,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40">
         <v>44377</v>
       </c>
@@ -4199,7 +4206,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
         <v>44408</v>
       </c>
@@ -4219,7 +4226,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
         <v>44439</v>
       </c>
@@ -4239,7 +4246,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
         <v>44469</v>
       </c>
@@ -4259,7 +4266,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40">
         <v>44500</v>
       </c>
@@ -4279,7 +4286,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
         <v>44530</v>
       </c>
@@ -4299,7 +4306,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40">
         <v>44561</v>
       </c>
@@ -4323,7 +4330,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="48" t="s">
         <v>49</v>
       </c>
@@ -4341,7 +4348,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
         <v>44592</v>
       </c>
@@ -4361,7 +4368,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40">
         <v>44620</v>
       </c>
@@ -4381,7 +4388,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40">
         <v>44651</v>
       </c>
@@ -4401,7 +4408,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40">
         <v>44681</v>
       </c>
@@ -4427,7 +4434,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40"/>
       <c r="B68" s="20" t="s">
         <v>88</v>
@@ -4447,7 +4454,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="49"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40">
         <v>44712</v>
       </c>
@@ -4473,7 +4480,7 @@
         <v>44698</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40">
         <v>44742</v>
       </c>
@@ -4499,7 +4506,7 @@
         <v>44740</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40">
         <v>44773</v>
       </c>
@@ -4519,7 +4526,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40">
         <v>44804</v>
       </c>
@@ -4545,7 +4552,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40"/>
       <c r="B73" s="20" t="s">
         <v>86</v>
@@ -4565,7 +4572,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="49"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40">
         <v>44834</v>
       </c>
@@ -4591,7 +4598,7 @@
         <v>44827</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40"/>
       <c r="B75" s="20" t="s">
         <v>84</v>
@@ -4611,7 +4618,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="49"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40">
         <v>44865</v>
       </c>
@@ -4637,7 +4644,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40"/>
       <c r="B77" s="20" t="s">
         <v>83</v>
@@ -4657,7 +4664,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="49"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40">
         <v>44866</v>
       </c>
@@ -4683,7 +4690,7 @@
         <v>44869</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40"/>
       <c r="B79" s="20" t="s">
         <v>80</v>
@@ -4703,7 +4710,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="49"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40">
         <v>44896</v>
       </c>
@@ -4727,7 +4734,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="49"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40"/>
       <c r="B81" s="20" t="s">
         <v>76</v>
@@ -4749,7 +4756,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40"/>
       <c r="B82" s="20" t="s">
         <v>78</v>
@@ -4769,7 +4776,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="49"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="48" t="s">
         <v>71</v>
       </c>
@@ -4787,7 +4794,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40">
         <v>44927</v>
       </c>
@@ -4807,7 +4814,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="49"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40">
         <v>44958</v>
       </c>
@@ -4833,7 +4840,7 @@
         <v>44980</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40">
         <v>44986</v>
       </c>
@@ -4859,7 +4866,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40">
         <v>45017</v>
       </c>
@@ -4885,7 +4892,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40">
         <v>45047</v>
       </c>
@@ -4911,7 +4918,7 @@
         <v>45058</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40">
         <v>45078</v>
       </c>
@@ -4931,7 +4938,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40">
         <v>45108</v>
       </c>
@@ -4951,7 +4958,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40">
         <v>45139</v>
       </c>
@@ -4977,7 +4984,7 @@
         <v>45140</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40">
         <v>45170</v>
       </c>
@@ -4997,20 +5004,22 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40">
         <v>45200</v>
       </c>
       <c r="B93" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="C93" s="13"/>
+      <c r="C93" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D93" s="39"/>
       <c r="E93" s="9"/>
       <c r="F93" s="20"/>
-      <c r="G93" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G93" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H93" s="39">
         <v>2</v>
@@ -5021,42 +5030,50 @@
         <v>89</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40">
         <v>45231</v>
       </c>
       <c r="B94" s="20"/>
-      <c r="C94" s="13"/>
+      <c r="C94" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D94" s="39"/>
       <c r="E94" s="9"/>
       <c r="F94" s="20"/>
-      <c r="G94" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G94" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H94" s="39"/>
       <c r="I94" s="9"/>
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A95" s="40"/>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A95" s="40">
+        <v>45261</v>
+      </c>
       <c r="B95" s="20"/>
-      <c r="C95" s="13"/>
+      <c r="C95" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D95" s="39"/>
       <c r="E95" s="9"/>
       <c r="F95" s="20"/>
-      <c r="G95" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G95" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H95" s="39"/>
       <c r="I95" s="9"/>
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A96" s="40"/>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A96" s="48" t="s">
+        <v>90</v>
+      </c>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
       <c r="D96" s="39"/>
@@ -5071,23 +5088,33 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A97" s="40"/>
-      <c r="B97" s="20"/>
-      <c r="C97" s="13"/>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A97" s="40">
+        <v>45322</v>
+      </c>
+      <c r="B97" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C97" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D97" s="39"/>
       <c r="E97" s="9"/>
       <c r="F97" s="20"/>
-      <c r="G97" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H97" s="39"/>
+      <c r="G97" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H97" s="39">
+        <v>2</v>
+      </c>
       <c r="I97" s="9"/>
       <c r="J97" s="11"/>
-      <c r="K97" s="20"/>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K97" s="20" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -5103,7 +5130,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -5119,7 +5146,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -5135,7 +5162,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -5151,7 +5178,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -5167,7 +5194,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -5183,7 +5210,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -5199,7 +5226,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -5215,7 +5242,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -5231,7 +5258,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -5247,7 +5274,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -5263,7 +5290,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -5279,7 +5306,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -5295,7 +5322,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -5311,7 +5338,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -5327,7 +5354,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -5343,7 +5370,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -5359,7 +5386,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -5375,7 +5402,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -5391,7 +5418,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -5407,7 +5434,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -5423,7 +5450,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -5439,7 +5466,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -5455,7 +5482,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -5471,7 +5498,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -5487,7 +5514,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -5503,7 +5530,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -5519,7 +5546,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -5535,7 +5562,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -5551,7 +5578,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -5567,7 +5594,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -5583,7 +5610,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -5599,7 +5626,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -5615,7 +5642,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40"/>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -5631,7 +5658,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40"/>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -5647,7 +5674,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40"/>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -5663,7 +5690,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="40"/>
       <c r="B134" s="20"/>
       <c r="C134" s="13"/>
@@ -5679,7 +5706,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="40"/>
       <c r="B135" s="20"/>
       <c r="C135" s="13"/>
@@ -5695,7 +5722,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="40"/>
       <c r="B136" s="20"/>
       <c r="C136" s="13"/>
@@ -5711,7 +5738,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="40"/>
       <c r="B137" s="20"/>
       <c r="C137" s="13"/>
@@ -5727,7 +5754,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="40"/>
       <c r="B138" s="20"/>
       <c r="C138" s="13"/>
@@ -5743,7 +5770,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="40"/>
       <c r="B139" s="20"/>
       <c r="C139" s="13"/>
@@ -5759,7 +5786,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="40"/>
       <c r="B140" s="20"/>
       <c r="C140" s="13"/>
@@ -5775,7 +5802,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="40"/>
       <c r="B141" s="20"/>
       <c r="C141" s="13"/>
@@ -5791,7 +5818,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="41"/>
       <c r="B142" s="15"/>
       <c r="C142" s="42"/>
@@ -5809,23 +5836,23 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5848,34 +5875,34 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K86"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="4425" topLeftCell="A22" activePane="bottomLeft"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="4428" topLeftCell="A13" activePane="bottomLeft"/>
       <selection activeCell="F3" sqref="F3:G3"/>
-      <selection pane="bottomLeft" activeCell="C33" sqref="C33"/>
+      <selection pane="bottomLeft" activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -5887,16 +5914,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -5905,16 +5932,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55"/>
-      <c r="G3" s="51"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -5925,18 +5952,18 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="51"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -5944,7 +5971,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -5957,24 +5984,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -6009,7 +6036,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -6033,7 +6060,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>45</v>
       </c>
@@ -6055,7 +6082,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>43190</v>
       </c>
@@ -6079,7 +6106,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="48" t="s">
         <v>46</v>
       </c>
@@ -6097,7 +6124,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>43555</v>
       </c>
@@ -6119,7 +6146,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>43738</v>
       </c>
@@ -6143,7 +6170,7 @@
         <v>43350</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="48" t="s">
         <v>47</v>
       </c>
@@ -6161,7 +6188,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40">
         <v>43921</v>
       </c>
@@ -6185,7 +6212,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="48" t="s">
         <v>48</v>
       </c>
@@ -6203,7 +6230,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>44286</v>
       </c>
@@ -6227,7 +6254,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <v>44377</v>
       </c>
@@ -6251,7 +6278,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <v>44408</v>
       </c>
@@ -6275,7 +6302,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="48" t="s">
         <v>49</v>
       </c>
@@ -6293,7 +6320,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <v>44681</v>
       </c>
@@ -6317,7 +6344,7 @@
         <v>44657</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40">
         <v>44712</v>
       </c>
@@ -6341,7 +6368,7 @@
         <v>44693</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <v>44804</v>
       </c>
@@ -6365,7 +6392,7 @@
         <v>44776</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <v>44865</v>
       </c>
@@ -6389,7 +6416,7 @@
         <v>44847</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <v>44896</v>
       </c>
@@ -6413,7 +6440,7 @@
         <v>44908</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="48" t="s">
         <v>71</v>
       </c>
@@ -6431,7 +6458,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
         <v>44927</v>
       </c>
@@ -6455,7 +6482,7 @@
         <v>44951</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40"/>
       <c r="B29" s="20"/>
       <c r="C29" s="13"/>
@@ -6471,7 +6498,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40"/>
       <c r="B30" s="20"/>
       <c r="C30" s="13"/>
@@ -6487,7 +6514,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40"/>
       <c r="B31" s="20"/>
       <c r="C31" s="13"/>
@@ -6503,7 +6530,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40"/>
       <c r="B32" s="20"/>
       <c r="C32" s="13"/>
@@ -6519,7 +6546,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40"/>
       <c r="B33" s="20"/>
       <c r="C33" s="13"/>
@@ -6535,7 +6562,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40"/>
       <c r="B34" s="20"/>
       <c r="C34" s="13"/>
@@ -6551,7 +6578,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40"/>
       <c r="B35" s="20"/>
       <c r="C35" s="13"/>
@@ -6567,7 +6594,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40"/>
       <c r="B36" s="20"/>
       <c r="C36" s="13"/>
@@ -6583,7 +6610,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40"/>
       <c r="B37" s="20"/>
       <c r="C37" s="13"/>
@@ -6599,7 +6626,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40"/>
       <c r="B38" s="20"/>
       <c r="C38" s="13"/>
@@ -6615,7 +6642,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40"/>
       <c r="B39" s="20"/>
       <c r="C39" s="13"/>
@@ -6631,7 +6658,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40"/>
       <c r="B40" s="20"/>
       <c r="C40" s="13"/>
@@ -6647,7 +6674,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40"/>
       <c r="B41" s="20"/>
       <c r="C41" s="13"/>
@@ -6663,7 +6690,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40"/>
       <c r="B42" s="20"/>
       <c r="C42" s="13"/>
@@ -6679,7 +6706,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40"/>
       <c r="B43" s="20"/>
       <c r="C43" s="13"/>
@@ -6695,7 +6722,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40"/>
       <c r="B44" s="20"/>
       <c r="C44" s="13"/>
@@ -6711,7 +6738,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40"/>
       <c r="B45" s="20"/>
       <c r="C45" s="13"/>
@@ -6727,7 +6754,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40"/>
       <c r="B46" s="20"/>
       <c r="C46" s="13"/>
@@ -6743,7 +6770,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40"/>
       <c r="B47" s="20"/>
       <c r="C47" s="13"/>
@@ -6759,7 +6786,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40"/>
       <c r="B48" s="20"/>
       <c r="C48" s="13"/>
@@ -6775,7 +6802,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40"/>
       <c r="B49" s="20"/>
       <c r="C49" s="13"/>
@@ -6791,7 +6818,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40"/>
       <c r="B50" s="20"/>
       <c r="C50" s="13"/>
@@ -6807,7 +6834,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40"/>
       <c r="B51" s="20"/>
       <c r="C51" s="13"/>
@@ -6823,7 +6850,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40"/>
       <c r="B52" s="20"/>
       <c r="C52" s="13"/>
@@ -6839,7 +6866,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40"/>
       <c r="B53" s="20"/>
       <c r="C53" s="13"/>
@@ -6855,7 +6882,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40"/>
       <c r="B54" s="20"/>
       <c r="C54" s="13"/>
@@ -6871,7 +6898,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40"/>
       <c r="B55" s="20"/>
       <c r="C55" s="13"/>
@@ -6887,7 +6914,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40"/>
       <c r="B56" s="20"/>
       <c r="C56" s="13"/>
@@ -6903,7 +6930,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40"/>
       <c r="B57" s="20"/>
       <c r="C57" s="13"/>
@@ -6919,7 +6946,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40"/>
       <c r="B58" s="20"/>
       <c r="C58" s="13"/>
@@ -6935,7 +6962,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40"/>
       <c r="B59" s="20"/>
       <c r="C59" s="13"/>
@@ -6951,7 +6978,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40"/>
       <c r="B60" s="20"/>
       <c r="C60" s="13"/>
@@ -6967,7 +6994,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40"/>
       <c r="B61" s="20"/>
       <c r="C61" s="13"/>
@@ -6983,7 +7010,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40"/>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
@@ -6999,7 +7026,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40"/>
       <c r="B63" s="20"/>
       <c r="C63" s="13"/>
@@ -7015,7 +7042,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40"/>
       <c r="B64" s="20"/>
       <c r="C64" s="13"/>
@@ -7031,7 +7058,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40"/>
       <c r="B65" s="20"/>
       <c r="C65" s="13"/>
@@ -7047,7 +7074,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40"/>
       <c r="B66" s="20"/>
       <c r="C66" s="13"/>
@@ -7063,7 +7090,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40"/>
       <c r="B67" s="20"/>
       <c r="C67" s="13"/>
@@ -7079,7 +7106,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40"/>
       <c r="B68" s="20"/>
       <c r="C68" s="13"/>
@@ -7095,7 +7122,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40"/>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
@@ -7111,7 +7138,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40"/>
       <c r="B70" s="20"/>
       <c r="C70" s="13"/>
@@ -7127,7 +7154,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40"/>
       <c r="B71" s="20"/>
       <c r="C71" s="13"/>
@@ -7143,7 +7170,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40"/>
       <c r="B72" s="20"/>
       <c r="C72" s="13"/>
@@ -7159,7 +7186,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40"/>
       <c r="B73" s="20"/>
       <c r="C73" s="13"/>
@@ -7175,7 +7202,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40"/>
       <c r="B74" s="20"/>
       <c r="C74" s="13"/>
@@ -7191,7 +7218,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40"/>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
@@ -7207,7 +7234,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40"/>
       <c r="B76" s="20"/>
       <c r="C76" s="13"/>
@@ -7223,7 +7250,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40"/>
       <c r="B77" s="20"/>
       <c r="C77" s="13"/>
@@ -7239,7 +7266,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40"/>
       <c r="B78" s="20"/>
       <c r="C78" s="13"/>
@@ -7255,7 +7282,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40"/>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
@@ -7271,7 +7298,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40"/>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
@@ -7287,7 +7314,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40"/>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -7303,7 +7330,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40"/>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -7319,7 +7346,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40"/>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -7335,7 +7362,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40"/>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -7351,7 +7378,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40"/>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -7367,7 +7394,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="41"/>
       <c r="B86" s="15"/>
       <c r="C86" s="42"/>
@@ -7398,10 +7425,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7424,28 +7451,28 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="58" t="s">
         <v>33</v>
       </c>
@@ -7458,7 +7485,7 @@
       <c r="K1" s="59"/>
       <c r="L1" s="59"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -7487,7 +7514,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>74.625</v>
       </c>
@@ -7515,17 +7542,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>75</v>
       </c>
@@ -7549,10 +7576,10 @@
       <c r="K6" s="60"/>
       <c r="L6" s="60"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <f>SUM('2018 LEAVE CREDITS'!E9,'2018 LEAVE CREDITS'!I9)</f>
-        <v>108.89200000000001</v>
+        <v>116.89200000000001</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
@@ -7580,7 +7607,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -7606,7 +7633,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -7632,7 +7659,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -7658,7 +7685,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -7684,7 +7711,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -7710,7 +7737,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -7736,7 +7763,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -7762,7 +7789,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -7782,7 +7809,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -7802,7 +7829,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -7822,7 +7849,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -7843,7 +7870,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -7864,7 +7891,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -7885,7 +7912,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -7906,7 +7933,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -7927,7 +7954,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -7948,7 +7975,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -7969,7 +7996,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -7990,7 +8017,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -8011,7 +8038,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -8032,7 +8059,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -8053,7 +8080,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -8074,7 +8101,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -8095,7 +8122,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -8116,7 +8143,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -8137,7 +8164,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -8158,7 +8185,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -8179,7 +8206,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -8200,7 +8227,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -8221,7 +8248,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -8242,7 +8269,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -8251,7 +8278,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -8260,7 +8287,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -8269,7 +8296,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -8278,7 +8305,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -8287,7 +8314,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -8296,7 +8323,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -8305,7 +8332,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -8314,7 +8341,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -8323,7 +8350,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -8332,7 +8359,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -8341,7 +8368,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -8350,7 +8377,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -8359,7 +8386,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -8368,7 +8395,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -8377,7 +8404,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -8386,7 +8413,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -8395,7 +8422,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -8404,7 +8431,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -8413,7 +8440,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -8422,7 +8449,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -8431,7 +8458,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -8440,7 +8467,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -8449,7 +8476,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -8458,7 +8485,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -8467,7 +8494,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -8476,7 +8503,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -8485,7 +8512,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -8494,7 +8521,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -8503,7 +8530,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
